--- a/data/trans_dic/IP09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 60,02</t>
+          <t>12,98; 59,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,59; 82,7</t>
+          <t>34,99; 83,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,6; 74,75</t>
+          <t>25,09; 77,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 53,47</t>
+          <t>7,58; 59,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,06; 67,22</t>
+          <t>21,09; 65,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,98</t>
+          <t>0,0; 74,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 92,01</t>
+          <t>0,0; 91,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,77; 48,74</t>
+          <t>14,57; 48,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 66,0</t>
+          <t>33,37; 67,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 73,06</t>
+          <t>11,74; 71,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 75,11</t>
+          <t>31,84; 78,1</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,17; 40,08</t>
+          <t>20,49; 40,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,81; 41,89</t>
+          <t>23,09; 42,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,63; 57,34</t>
+          <t>29,04; 56,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,42; 43,87</t>
+          <t>19,28; 42,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 42,17</t>
+          <t>14,55; 41,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 44,91</t>
+          <t>24,46; 45,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,61; 55,74</t>
+          <t>29,03; 57,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 48,09</t>
+          <t>22,1; 48,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,35; 37,16</t>
+          <t>21,1; 37,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,11; 40,18</t>
+          <t>26,29; 40,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,67; 52,69</t>
+          <t>35,05; 52,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 41,21</t>
+          <t>23,44; 41,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 40,13</t>
+          <t>10,0; 43,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 41,41</t>
+          <t>9,28; 41,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 79,91</t>
+          <t>27,8; 80,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 45,54</t>
+          <t>11,09; 47,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 36,78</t>
+          <t>3,59; 35,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 49,46</t>
+          <t>9,94; 49,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 62,55</t>
+          <t>16,77; 62,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 50,4</t>
+          <t>14,36; 50,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 31,9</t>
+          <t>10,45; 33,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 37,99</t>
+          <t>13,58; 37,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,03; 60,71</t>
+          <t>28,31; 63,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 41,49</t>
+          <t>16,79; 41,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,3; 36,81</t>
+          <t>21,16; 36,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,55; 40,8</t>
+          <t>26,45; 41,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,08; 57,74</t>
+          <t>35,12; 58,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 40,9</t>
+          <t>21,99; 41,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 32,42</t>
+          <t>14,4; 32,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,47; 43,01</t>
+          <t>26,54; 43,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 52,87</t>
+          <t>29,06; 52,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,18; 48,09</t>
+          <t>25,34; 47,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 32,33</t>
+          <t>20,71; 32,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 39,6</t>
+          <t>28,24; 39,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,95; 52,23</t>
+          <t>36,49; 52,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 40,25</t>
+          <t>25,71; 40,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42,01%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71,84%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>33,09%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>60,14%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>53,32%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>51,26%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>42,01%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>31,47%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>59,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 59,88</t>
+          <t>7,67; 58,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,99; 83,0</t>
+          <t>20,8; 64,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 74,81</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 96,21</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 60,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31,3; 81,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>25,09; 77,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 59,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>21,09; 65,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 74,63</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,52</t>
+          <t>24,22; 76,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 48,64</t>
+          <t>14,18; 49,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,37; 67,07</t>
+          <t>32,64; 68,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 71,41</t>
+          <t>11,24; 70,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,84; 78,1</t>
+          <t>33,6; 86,24</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34,55%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42,66%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>30,05%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>32,51%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>43,48%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>30,81%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>26,22%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,55%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>42,66%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>29,68%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 40,34</t>
+          <t>14,18; 40,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,09; 42,42</t>
+          <t>25,06; 45,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,04; 56,94</t>
+          <t>28,81; 57,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,28; 42,98</t>
+          <t>21,18; 46,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 41,79</t>
+          <t>19,89; 39,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,46; 45,49</t>
+          <t>23,75; 41,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,03; 57,91</t>
+          <t>30,51; 56,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 48,85</t>
+          <t>15,61; 40,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 37,85</t>
+          <t>21,37; 36,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,29; 40,75</t>
+          <t>26,17; 39,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,05; 52,99</t>
+          <t>32,75; 52,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,44; 41,91</t>
+          <t>19,18; 39,12</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>23,13%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>21,6%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>54,65%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>25,69%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>26,78%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,1%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>27,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 43,09</t>
+          <t>3,55; 34,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 41,09</t>
+          <t>12,24; 50,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,8; 80,15</t>
+          <t>16,42; 62,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 47,99</t>
+          <t>14,57; 53,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 35,15</t>
+          <t>9,98; 40,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 49,02</t>
+          <t>10,34; 42,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 62,37</t>
+          <t>28,02; 75,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 50,82</t>
+          <t>11,06; 44,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 33,48</t>
+          <t>10,27; 31,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 37,74</t>
+          <t>13,9; 36,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,31; 63,56</t>
+          <t>29,13; 64,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 41,5</t>
+          <t>17,53; 42,15</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>28,8%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>33,44%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>46,21%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>31,85%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34,27%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>40,48%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>33,06%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 36,82</t>
+          <t>14,34; 32,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,45; 41,14</t>
+          <t>26,05; 42,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,12; 58,5</t>
+          <t>29,68; 52,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,99; 41,64</t>
+          <t>26,7; 56,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 32,64</t>
+          <t>21,67; 36,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,54; 43,41</t>
+          <t>26,05; 42,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,06; 52,63</t>
+          <t>35,37; 58,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,34; 47,54</t>
+          <t>18,61; 39,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 32,99</t>
+          <t>20,95; 33,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 39,57</t>
+          <t>28,93; 40,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,49; 52,28</t>
+          <t>35,85; 52,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,71; 40,67</t>
+          <t>25,71; 42,58</t>
         </is>
       </c>
     </row>
